--- a/GameMaster/RPGTale/Data/Data_Excel/AssembleMetaData.xlsx
+++ b/GameMaster/RPGTale/Data/Data_Excel/AssembleMetaData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\建造工程\Project\GameMaster\RPGTale\Data\Data_Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84822D06-CABD-46E6-B20F-4B82D6A7E8FB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3815819-ACCC-495C-B682-4C9351C87BD5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4140" yWindow="2085" windowWidth="23205" windowHeight="12255" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1320" yWindow="2070" windowWidth="23205" windowHeight="12255" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="AssembleWarship" sheetId="1" r:id="rId1"/>
@@ -145,10 +145,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>sss</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>AssembleParts_Name_Engine</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -157,18 +153,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ghfff</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AssembleParts_ModelType_Desc_RD-M4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RD-M4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>PropertyConfig</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -190,6 +174,21 @@
   </si>
   <si>
     <t>ModelTypeName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AssembleParts_ModelType_Desc_100</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AssembleParts_ModelType_Name_100</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SpriteOutput/Assemble/Type/Assemble_Part_Type_Engine</t>
+  </si>
+  <si>
+    <t>Objects/Assemble/Parts/Parts001/AssembleParts_001</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -248,7 +247,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -258,10 +257,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -614,7 +610,7 @@
   <dimension ref="A1:M3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+      <selection activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -768,7 +764,7 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -817,8 +813,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA90FB13-0B57-4FEC-8B6D-736F2940F7EF}">
   <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -873,71 +869,72 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EEC2AD86-82DF-43D6-A95B-260D68CEBAE0}">
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:J2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="13.375" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.875" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="35.875" style="4" customWidth="1"/>
-    <col min="4" max="4" width="19.875" style="4" customWidth="1"/>
+    <col min="1" max="1" width="13.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="34.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="34.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="49" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10.875" style="1" customWidth="1"/>
     <col min="6" max="6" width="36.5" style="1" customWidth="1"/>
-    <col min="7" max="7" width="13.375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="53.25" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="18.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="9" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="C1" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="D1" s="5" t="s">
+      <c r="B1" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D1" s="3" t="s">
         <v>18</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="4">
+      <c r="A2" s="1">
         <v>100</v>
       </c>
-      <c r="B2" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>32</v>
+      <c r="B2" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>40</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="H2" s="1" t="s">
         <v>28</v>

--- a/GameMaster/RPGTale/Data/Data_Excel/AssembleMetaData.xlsx
+++ b/GameMaster/RPGTale/Data/Data_Excel/AssembleMetaData.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\建造工程\Project\GameMaster\RPGTale\Data\Data_Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3815819-ACCC-495C-B682-4C9351C87BD5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E4990EA-40C6-47A3-9710-FC3AFFA1E180}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1320" yWindow="2070" windowWidth="23205" windowHeight="12255" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="210" yWindow="2220" windowWidth="23205" windowHeight="12255" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="AssembleWarship" sheetId="1" r:id="rId1"/>
-    <sheet name="AssembleWarshipClass" sheetId="2" r:id="rId2"/>
-    <sheet name="AssembleParts" sheetId="3" r:id="rId3"/>
-    <sheet name="AssemblePartsType" sheetId="4" r:id="rId4"/>
+    <sheet name="AssembleWarShipType" sheetId="5" r:id="rId2"/>
+    <sheet name="AssembleWarshipClass" sheetId="2" r:id="rId3"/>
+    <sheet name="AssembleParts" sheetId="3" r:id="rId4"/>
+    <sheet name="AssemblePartsType" sheetId="4" r:id="rId5"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="47">
   <si>
     <t>WarShipID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -66,10 +67,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>MaxModuleNum</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>BaseTimeCost</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -89,10 +86,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>sadad</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>AssembleWarship_ClassDesc_100</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -189,6 +182,38 @@
   </si>
   <si>
     <t>Objects/Assemble/Parts/Parts001/AssembleParts_001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ConfigData</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ShipPartConfig_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ShipPartConfig_2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AssembleWarShipType_Explore</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AssembleWarShipType_Fire</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SpriteOutput/Assemble/ShipType/Assemble_Ship_Type_Explore</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Objects/Assemble/Ship/Ship001/Ship001</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -610,7 +635,7 @@
   <dimension ref="A1:M3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F28" sqref="F28"/>
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -620,13 +645,13 @@
     <col min="4" max="4" width="9.625" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12.5" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="13.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="12.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="19.875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -634,40 +659,40 @@
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="K1" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="L1" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M1" s="3" t="s">
-        <v>3</v>
+        <v>39</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.2">
@@ -690,25 +715,25 @@
         <v>500</v>
       </c>
       <c r="G2" s="1">
+        <v>5000</v>
+      </c>
+      <c r="H2" s="1">
+        <v>1.6</v>
+      </c>
+      <c r="I2" s="1">
+        <v>5.5</v>
+      </c>
+      <c r="J2" s="1">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="K2" s="1">
         <v>6</v>
       </c>
-      <c r="H2" s="1">
-        <v>5000</v>
-      </c>
-      <c r="I2" s="1">
-        <v>1.6</v>
-      </c>
-      <c r="J2" s="1">
-        <v>5.5</v>
-      </c>
-      <c r="K2" s="1">
-        <v>2.2999999999999998</v>
-      </c>
       <c r="L2" s="1">
-        <v>6</v>
-      </c>
-      <c r="M2" s="1">
         <v>10</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.2">
@@ -731,25 +756,25 @@
         <v>600</v>
       </c>
       <c r="G3" s="1">
+        <v>6000</v>
+      </c>
+      <c r="H3" s="1">
+        <v>2</v>
+      </c>
+      <c r="I3" s="1">
         <v>5</v>
       </c>
-      <c r="H3" s="1">
-        <v>6000</v>
-      </c>
-      <c r="I3" s="1">
-        <v>2</v>
-      </c>
       <c r="J3" s="1">
-        <v>5</v>
+        <v>1.5</v>
       </c>
       <c r="K3" s="1">
-        <v>1.5</v>
+        <v>8</v>
       </c>
       <c r="L3" s="1">
-        <v>8</v>
-      </c>
-      <c r="M3" s="1">
         <v>15</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>41</v>
       </c>
     </row>
   </sheetData>
@@ -760,46 +785,51 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F246614B-2A30-4206-B3F6-1468D348947F}">
-  <dimension ref="A1:D2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C6F6713-F5AA-40A7-B570-5EA819A7AC6E}">
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C29" sqref="C29"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
-    <col min="2" max="3" width="31.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.75" style="1" customWidth="1"/>
+    <col min="2" max="2" width="29" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="58.125" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>17</v>
+        <v>43</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>15</v>
+        <v>45</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>45</v>
       </c>
     </row>
   </sheetData>
@@ -810,11 +840,61 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F246614B-2A30-4206-B3F6-1468D348947F}">
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="9" style="1"/>
+    <col min="2" max="3" width="31.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="50.75" style="1" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" s="1">
+        <v>100</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA90FB13-0B57-4FEC-8B6D-736F2940F7EF}">
   <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -828,19 +908,19 @@
   <sheetData>
     <row r="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
@@ -851,13 +931,13 @@
         <v>100</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D2" s="1">
         <v>20</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -867,7 +947,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EEC2AD86-82DF-43D6-A95B-260D68CEBAE0}">
   <dimension ref="A1:J2"/>
   <sheetViews>
@@ -890,28 +970,28 @@
   <sheetData>
     <row r="1" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -919,25 +999,25 @@
         <v>100</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="E2" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G2" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>39</v>
-      </c>
       <c r="H2" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>

--- a/GameMaster/RPGTale/Data/Data_Excel/AssembleMetaData.xlsx
+++ b/GameMaster/RPGTale/Data/Data_Excel/AssembleMetaData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\建造工程\Project\GameMaster\RPGTale\Data\Data_Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E4990EA-40C6-47A3-9710-FC3AFFA1E180}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C1491A6-E479-4614-ACC9-5E961DE00135}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="210" yWindow="2220" windowWidth="23205" windowHeight="12255" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1350" yWindow="1575" windowWidth="23205" windowHeight="12255" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="AssembleWarship" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="55">
   <si>
     <t>WarShipID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -214,6 +214,38 @@
   </si>
   <si>
     <t>Objects/Assemble/Ship/Ship001/Ship001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SpriteOutput/Assemble/Icon/Assemble_Part_Engine_001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PartIconSmall</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SpriteOutput/Assemble/Icon/Assemble_Part_Engine_Icon_001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PartSprite</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MainType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Warship</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AssembleType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WarShip</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -632,29 +664,31 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M3"/>
+  <dimension ref="A1:N3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="10.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="5.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="19.875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="5.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="19.875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -662,118 +696,127 @@
         <v>13</v>
       </c>
       <c r="C1" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="D1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="E1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="F1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="G1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="H1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="I1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="J1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="K1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="L1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="M1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="N1" s="3" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>1</v>
       </c>
       <c r="B2" s="1">
         <v>1</v>
       </c>
-      <c r="C2" s="1">
+      <c r="C2" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D2" s="1">
         <v>100</v>
       </c>
-      <c r="D2" s="1">
+      <c r="E2" s="1">
         <v>1</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="1">
+      <c r="G2" s="1">
         <v>500</v>
       </c>
-      <c r="G2" s="1">
+      <c r="H2" s="1">
         <v>5000</v>
       </c>
-      <c r="H2" s="1">
+      <c r="I2" s="1">
         <v>1.6</v>
       </c>
-      <c r="I2" s="1">
+      <c r="J2" s="1">
         <v>5.5</v>
       </c>
-      <c r="J2" s="1">
+      <c r="K2" s="1">
         <v>2.2999999999999998</v>
       </c>
-      <c r="K2" s="1">
+      <c r="L2" s="1">
         <v>6</v>
       </c>
-      <c r="L2" s="1">
+      <c r="M2" s="1">
         <v>10</v>
       </c>
-      <c r="M2" s="1" t="s">
+      <c r="N2" s="1" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>2</v>
       </c>
       <c r="B3" s="1">
         <v>2</v>
       </c>
-      <c r="C3" s="1">
+      <c r="C3" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D3" s="1">
         <v>100</v>
       </c>
-      <c r="D3" s="1">
+      <c r="E3" s="1">
         <v>2</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="F3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="F3" s="1">
+      <c r="G3" s="1">
         <v>600</v>
       </c>
-      <c r="G3" s="1">
+      <c r="H3" s="1">
         <v>6000</v>
       </c>
-      <c r="H3" s="1">
+      <c r="I3" s="1">
         <v>2</v>
       </c>
-      <c r="I3" s="1">
+      <c r="J3" s="1">
         <v>5</v>
       </c>
-      <c r="J3" s="1">
+      <c r="K3" s="1">
         <v>1.5</v>
       </c>
-      <c r="K3" s="1">
+      <c r="L3" s="1">
         <v>8</v>
       </c>
-      <c r="L3" s="1">
+      <c r="M3" s="1">
         <v>15</v>
       </c>
-      <c r="M3" s="1" t="s">
+      <c r="N3" s="1" t="s">
         <v>41</v>
       </c>
     </row>
@@ -789,7 +832,7 @@
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -799,14 +842,14 @@
     <col min="3" max="3" width="58.125" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="3" t="s">
         <v>30</v>
       </c>
     </row>
@@ -843,8 +886,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F246614B-2A30-4206-B3F6-1468D348947F}">
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -891,22 +934,25 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA90FB13-0B57-4FEC-8B6D-736F2940F7EF}">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="14.625" style="1" customWidth="1"/>
     <col min="2" max="2" width="16.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="13.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="28.625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="51.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="51.625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="19.625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="13.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.375" style="1" customWidth="1"/>
+    <col min="8" max="8" width="28.625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>25</v>
       </c>
@@ -914,16 +960,25 @@
         <v>24</v>
       </c>
       <c r="C1" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="E1" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="F1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="G1" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="H1" s="3" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -931,12 +986,21 @@
         <v>100</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D2" s="1">
+      <c r="F2" s="1">
         <v>20</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="G2" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="H2" s="1" t="s">
         <v>20</v>
       </c>
     </row>

--- a/GameMaster/RPGTale/Data/Data_Excel/AssembleMetaData.xlsx
+++ b/GameMaster/RPGTale/Data/Data_Excel/AssembleMetaData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\建造工程\Project\GameMaster\RPGTale\Data\Data_Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C1491A6-E479-4614-ACC9-5E961DE00135}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7E368EB-AA9E-46E6-B16E-A3945276D70B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1350" yWindow="1575" windowWidth="23205" windowHeight="12255" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2205" yWindow="1605" windowWidth="25755" windowHeight="12255" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="AssembleWarship" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="64">
   <si>
     <t>WarShipID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -138,10 +138,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>AssembleParts_Name_Engine</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Engine</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -154,10 +150,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>TypeName</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>TypeID</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -178,9 +170,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>SpriteOutput/Assemble/Type/Assemble_Part_Type_Engine</t>
-  </si>
-  <si>
     <t>Objects/Assemble/Parts/Parts001/AssembleParts_001</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -246,6 +235,54 @@
   </si>
   <si>
     <t>WarShip</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Unlock</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SpriteOutput/Assemble/Icon/Assemble_Part_Engine_Icon_002</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SpriteOutput/Assemble/Icon/Assemble_Part_Engine_002</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AssembleParts_ModelType_Desc_101</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Objects/Assemble/Parts/Parts001/AssembleParts_002</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AssembleParts_ModelType_Name_101</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SpriteOutput/Assemble/Icon/Assemble_Part_Engine_Icon_003</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SpriteOutput/Assemble/Icon/Assemble_Part_Engine_003</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AssembleParts_ModelType_Name_200</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AssembleParts_ModelType_Desc_200</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Objects/Assemble/Parts/Parts001/AssembleParts_200</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Shield</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -696,7 +733,7 @@
         <v>13</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>12</v>
@@ -729,7 +766,7 @@
         <v>3</v>
       </c>
       <c r="N1" s="3" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.2">
@@ -740,7 +777,7 @@
         <v>1</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="D2" s="1">
         <v>100</v>
@@ -773,7 +810,7 @@
         <v>10</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.2">
@@ -784,7 +821,7 @@
         <v>2</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="D3" s="1">
         <v>100</v>
@@ -817,7 +854,7 @@
         <v>15</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>
@@ -844,13 +881,13 @@
   <sheetData>
     <row r="1" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
@@ -858,10 +895,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
@@ -869,10 +906,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>
@@ -922,7 +959,7 @@
         <v>14</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>
@@ -934,25 +971,23 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA90FB13-0B57-4FEC-8B6D-736F2940F7EF}">
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="14.625" style="1" customWidth="1"/>
     <col min="2" max="2" width="16.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="51.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="51.625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="19.625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="13.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="19.375" style="1" customWidth="1"/>
-    <col min="8" max="8" width="28.625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="19.625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="13.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="28.625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>25</v>
       </c>
@@ -960,25 +995,19 @@
         <v>24</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>48</v>
+        <v>23</v>
       </c>
       <c r="D1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="E1" s="3" t="s">
-        <v>23</v>
-      </c>
       <c r="F1" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="H1" s="3" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -986,21 +1015,15 @@
         <v>100</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>47</v>
+        <v>21</v>
+      </c>
+      <c r="D2" s="1">
+        <v>20</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="F2" s="1">
-        <v>20</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="H2" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>20</v>
       </c>
     </row>
@@ -1013,37 +1036,38 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EEC2AD86-82DF-43D6-A95B-260D68CEBAE0}">
-  <dimension ref="A1:J2"/>
+  <dimension ref="A1:K4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="13.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="34.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="34.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="49" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.875" style="1" customWidth="1"/>
-    <col min="6" max="6" width="36.5" style="1" customWidth="1"/>
-    <col min="7" max="7" width="53.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="18.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="9" style="4"/>
+    <col min="2" max="2" width="13.375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="51.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="51.625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="34.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="34.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="49" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.875" style="1" customWidth="1"/>
+    <col min="9" max="9" width="18.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="9" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>24</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>34</v>
+        <v>52</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>16</v>
+        <v>47</v>
       </c>
       <c r="E1" s="3" t="s">
         <v>32</v>
@@ -1052,35 +1076,99 @@
         <v>31</v>
       </c>
       <c r="G1" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H1" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="H1" s="3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="I1" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>100</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>36</v>
+      <c r="B2" s="1" t="b">
+        <v>1</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G2" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="F2" s="1" t="s">
+      <c r="H2" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="G2" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="H2" s="1" t="s">
+      <c r="I2" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="1">
+        <v>101</v>
+      </c>
+      <c r="B3" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="1">
+        <v>200</v>
+      </c>
+      <c r="B4" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="I4" s="1" t="s">
         <v>26</v>
       </c>
     </row>

--- a/GameMaster/RPGTale/Data/Data_Excel/AssembleMetaData.xlsx
+++ b/GameMaster/RPGTale/Data/Data_Excel/AssembleMetaData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\建造工程\Project\GameMaster\RPGTale\Data\Data_Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7E368EB-AA9E-46E6-B16E-A3945276D70B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D972BA43-6A17-41A1-9371-4B6839B90124}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2205" yWindow="1605" windowWidth="25755" windowHeight="12255" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2205" yWindow="1605" windowWidth="25755" windowHeight="12255" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="AssembleWarship" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="64">
   <si>
     <t>WarShipID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -971,59 +971,112 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA90FB13-0B57-4FEC-8B6D-736F2940F7EF}">
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="14.625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="13.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="28.625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="13.375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="16.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="13.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="28.625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>25</v>
       </c>
       <c r="B1" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="D1" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="E1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="F1" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="G1" s="3" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>1</v>
       </c>
-      <c r="B2" s="1">
+      <c r="B2" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1">
         <v>100</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D2" s="1">
+      <c r="E2" s="1">
         <v>20</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="G2" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="C3" s="1">
+        <v>101</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E3" s="1">
+        <v>20</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="C4" s="1">
+        <v>200</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E4" s="1">
+        <v>20</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="G4" s="1" t="s">
         <v>20</v>
       </c>
     </row>
@@ -1036,139 +1089,126 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EEC2AD86-82DF-43D6-A95B-260D68CEBAE0}">
-  <dimension ref="A1:K4"/>
+  <dimension ref="A1:J4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="13.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="51.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="51.625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="34.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="34.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="49" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.875" style="1" customWidth="1"/>
-    <col min="9" max="9" width="18.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="9" style="4"/>
+    <col min="2" max="2" width="51.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="51.625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="34.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="34.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="49" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.875" style="1" customWidth="1"/>
+    <col min="8" max="8" width="18.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="9" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>24</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>47</v>
+        <v>32</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="I1" s="3" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>100</v>
       </c>
-      <c r="B2" s="1" t="b">
-        <v>1</v>
+      <c r="B2" s="1" t="s">
+        <v>46</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="I2" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="3" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>101</v>
       </c>
-      <c r="B3" s="1" t="b">
-        <v>1</v>
+      <c r="B3" s="1" t="s">
+        <v>53</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>56</v>
+        <v>27</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="I3" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="4" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>200</v>
       </c>
-      <c r="B4" s="1" t="b">
-        <v>1</v>
+      <c r="B4" s="1" t="s">
+        <v>58</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="I4" s="1" t="s">
         <v>26</v>
       </c>
     </row>

--- a/GameMaster/RPGTale/Data/Data_Excel/AssembleMetaData.xlsx
+++ b/GameMaster/RPGTale/Data/Data_Excel/AssembleMetaData.xlsx
@@ -8,16 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\建造工程\Project\GameMaster\RPGTale\Data\Data_Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D972BA43-6A17-41A1-9371-4B6839B90124}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA43ACED-2D0D-49AD-B61E-77830B760A53}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2205" yWindow="1605" windowWidth="25755" windowHeight="12255" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="AssembleWarship" sheetId="1" r:id="rId1"/>
-    <sheet name="AssembleWarShipType" sheetId="5" r:id="rId2"/>
-    <sheet name="AssembleWarshipClass" sheetId="2" r:id="rId3"/>
-    <sheet name="AssembleParts" sheetId="3" r:id="rId4"/>
-    <sheet name="AssemblePartsType" sheetId="4" r:id="rId5"/>
+    <sheet name="AssembleWarshipClass" sheetId="2" r:id="rId2"/>
+    <sheet name="AssembleParts" sheetId="3" r:id="rId3"/>
+    <sheet name="AssemblePartsType" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -29,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="61">
   <si>
     <t>WarShipID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -82,10 +81,6 @@
     <t>Class</t>
   </si>
   <si>
-    <t>Type</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>AssembleWarship_ClassDesc_100</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -146,10 +141,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>IconPath</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>TypeID</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -186,22 +177,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AssembleWarShipType_Explore</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AssembleWarShipType_Fire</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SpriteOutput/Assemble/ShipType/Assemble_Ship_Type_Explore</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Objects/Assemble/Ship/Ship001/Ship001</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -226,10 +201,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Warship</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>AssembleType</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -283,6 +254,22 @@
   </si>
   <si>
     <t>Shield</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Unlock</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ShipSpritePath</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SpriteOutput/Assemble/ShipSprite/Assemble_Ship_001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Explorer</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -701,18 +688,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N3"/>
+  <dimension ref="A1:O3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="10.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.5" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9.625" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="12.5" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="13.5" style="1" bestFit="1" customWidth="1"/>
@@ -722,21 +709,22 @@
     <col min="11" max="11" width="11" style="1" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="9.5" style="1" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="12.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="19.875" style="1" customWidth="1"/>
+    <col min="14" max="14" width="50.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="19.875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>13</v>
+        <v>42</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>48</v>
+        <v>12</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>12</v>
+        <v>57</v>
       </c>
       <c r="E1" s="3" t="s">
         <v>11</v>
@@ -766,21 +754,24 @@
         <v>3</v>
       </c>
       <c r="N1" s="3" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+        <v>58</v>
+      </c>
+      <c r="O1" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>1</v>
       </c>
-      <c r="B2" s="1">
+      <c r="B2" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C2" s="1">
+        <v>100</v>
+      </c>
+      <c r="D2" s="1" t="b">
         <v>1</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="D2" s="1">
-        <v>100</v>
       </c>
       <c r="E2" s="1">
         <v>1</v>
@@ -810,21 +801,24 @@
         <v>10</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
+        <v>59</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>2</v>
       </c>
-      <c r="B3" s="1">
-        <v>2</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="D3" s="1">
+      <c r="B3" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C3" s="1">
         <v>100</v>
+      </c>
+      <c r="D3" s="1" t="b">
+        <v>1</v>
       </c>
       <c r="E3" s="1">
         <v>2</v>
@@ -854,7 +848,10 @@
         <v>15</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>38</v>
+        <v>59</v>
+      </c>
+      <c r="O3" s="1" t="s">
+        <v>36</v>
       </c>
     </row>
   </sheetData>
@@ -865,66 +862,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C6F6713-F5AA-40A7-B570-5EA819A7AC6E}">
-  <dimension ref="A1:C3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="9" style="1"/>
-    <col min="2" max="2" width="29" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="58.125" style="1" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" s="1">
-        <v>1</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" s="1">
-        <v>2</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F246614B-2A30-4206-B3F6-1468D348947F}">
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -936,16 +878,16 @@
   <sheetData>
     <row r="1" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -953,13 +895,13 @@
         <v>100</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -969,12 +911,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA90FB13-0B57-4FEC-8B6D-736F2940F7EF}">
   <dimension ref="A1:G4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -990,25 +932,25 @@
   <sheetData>
     <row r="1" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E1" s="3" t="s">
         <v>9</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
@@ -1022,16 +964,16 @@
         <v>100</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E2" s="1">
         <v>20</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
@@ -1045,16 +987,16 @@
         <v>101</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E3" s="1">
         <v>20</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
@@ -1068,16 +1010,16 @@
         <v>200</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E4" s="1">
         <v>20</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>
@@ -1087,12 +1029,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EEC2AD86-82DF-43D6-A95B-260D68CEBAE0}">
   <dimension ref="A1:J4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="B39" sqref="B39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1110,28 +1052,28 @@
   <sheetData>
     <row r="1" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -1139,25 +1081,25 @@
         <v>100</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E2" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="F2" s="1" t="s">
-        <v>35</v>
-      </c>
       <c r="G2" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -1165,25 +1107,25 @@
         <v>101</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="4" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -1191,25 +1133,25 @@
         <v>200</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>

--- a/GameMaster/RPGTale/Data/Data_Excel/AssembleMetaData.xlsx
+++ b/GameMaster/RPGTale/Data/Data_Excel/AssembleMetaData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\建造工程\Project\GameMaster\RPGTale\Data\Data_Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA43ACED-2D0D-49AD-B61E-77830B760A53}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37C9B988-E619-48AF-93D4-D9F9CC6C2B89}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,17 +28,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="59">
   <si>
     <t>WarShipID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>asdada</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sssda</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -691,7 +683,7 @@
   <dimension ref="A1:O3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -701,7 +693,7 @@
     <col min="3" max="3" width="5.625" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="7.5" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.625" style="1" customWidth="1"/>
     <col min="7" max="7" width="13.5" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="7.875" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="10.625" style="1" bestFit="1" customWidth="1"/>
@@ -718,46 +710,46 @@
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="K1" s="3" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="L1" s="3" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M1" s="3" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N1" s="3" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="O1" s="3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.2">
@@ -765,7 +757,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C2" s="1">
         <v>100</v>
@@ -777,7 +769,7 @@
         <v>1</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="G2" s="1">
         <v>500</v>
@@ -801,10 +793,10 @@
         <v>10</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="O2" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.2">
@@ -812,7 +804,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C3" s="1">
         <v>100</v>
@@ -824,7 +816,7 @@
         <v>2</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="G3" s="1">
         <v>600</v>
@@ -848,10 +840,10 @@
         <v>15</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="O3" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
   </sheetData>
@@ -878,16 +870,16 @@
   <sheetData>
     <row r="1" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -895,13 +887,13 @@
         <v>100</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>
@@ -916,7 +908,7 @@
   <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -932,25 +924,25 @@
   <sheetData>
     <row r="1" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
@@ -964,16 +956,16 @@
         <v>100</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E2" s="1">
         <v>20</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
@@ -987,16 +979,16 @@
         <v>101</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E3" s="1">
         <v>20</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
@@ -1010,16 +1002,16 @@
         <v>200</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E4" s="1">
         <v>20</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -1052,28 +1044,28 @@
   <sheetData>
     <row r="1" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B1" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="C1" s="3" t="s">
-        <v>41</v>
-      </c>
       <c r="D1" s="3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -1081,25 +1073,25 @@
         <v>100</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E2" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="F2" s="1" t="s">
-        <v>33</v>
-      </c>
       <c r="G2" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -1107,25 +1099,25 @@
         <v>101</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E3" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="F3" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="D3" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>49</v>
-      </c>
       <c r="G3" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -1133,25 +1125,25 @@
         <v>200</v>
       </c>
       <c r="B4" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="E4" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="F4" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="G4" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="F4" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>56</v>
-      </c>
       <c r="H4" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>

--- a/GameMaster/RPGTale/Data/Data_Excel/AssembleMetaData.xlsx
+++ b/GameMaster/RPGTale/Data/Data_Excel/AssembleMetaData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\建造工程\Project\GameMaster\RPGTale\Data\Data_Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37C9B988-E619-48AF-93D4-D9F9CC6C2B89}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80DD4153-E6D2-41F1-9B3C-D3505780E1A6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="AssembleWarship" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="63">
   <si>
     <t>WarShipID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -217,10 +217,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Objects/Assemble/Parts/Parts001/AssembleParts_002</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>AssembleParts_ModelType_Name_101</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -241,10 +237,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Objects/Assemble/Parts/Parts001/AssembleParts_200</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Shield</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -262,6 +254,30 @@
   </si>
   <si>
     <t>Explorer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AssembleParts_ModelType_Name_300</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AssembleParts_ModelType_Desc_300</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Weapon</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PropertyConfig_300</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>101:10,102:3,103:5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CustomConfig_Part_4</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -682,8 +698,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -716,7 +732,7 @@
         <v>10</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E1" s="3" t="s">
         <v>9</v>
@@ -746,7 +762,7 @@
         <v>1</v>
       </c>
       <c r="N1" s="3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="O1" s="3" t="s">
         <v>32</v>
@@ -757,7 +773,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C2" s="1">
         <v>100</v>
@@ -793,7 +809,7 @@
         <v>10</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="O2" s="1" t="s">
         <v>33</v>
@@ -804,7 +820,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C3" s="1">
         <v>100</v>
@@ -840,7 +856,7 @@
         <v>15</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="O3" s="1" t="s">
         <v>34</v>
@@ -905,10 +921,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA90FB13-0B57-4FEC-8B6D-736F2940F7EF}">
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:G5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1014,6 +1030,29 @@
         <v>17</v>
       </c>
     </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="C5" s="1">
+        <v>300</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="E5" s="1">
+        <v>40</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1023,10 +1062,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EEC2AD86-82DF-43D6-A95B-260D68CEBAE0}">
-  <dimension ref="A1:J4"/>
+  <dimension ref="A1:J5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B39" sqref="B39"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1105,13 +1144,13 @@
         <v>45</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>46</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>24</v>
@@ -1125,25 +1164,51 @@
         <v>200</v>
       </c>
       <c r="B4" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="D4" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="E4" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="F4" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G4" s="1" t="s">
         <v>52</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>54</v>
       </c>
       <c r="H4" s="1" t="s">
         <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A5" s="1">
+        <v>300</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>60</v>
       </c>
     </row>
   </sheetData>

--- a/GameMaster/RPGTale/Data/Data_Excel/AssembleMetaData.xlsx
+++ b/GameMaster/RPGTale/Data/Data_Excel/AssembleMetaData.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22325"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\建造工程\Project\GameMaster\RPGTale\Data\Data_Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80DD4153-E6D2-41F1-9B3C-D3505780E1A6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77422694-614C-48EC-A74E-1A684F0AC1A9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="AssembleWarship" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="65">
   <si>
     <t>WarShipID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -278,6 +278,14 @@
   </si>
   <si>
     <t>CustomConfig_Part_4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SpriteOutput/Assemble/Icon/Assemble_Part_Engine_Icon_004</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SpriteOutput/Assemble/Icon/Assemble_Part_Engine_004</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -923,8 +931,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA90FB13-0B57-4FEC-8B6D-736F2940F7EF}">
   <dimension ref="A1:G5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1064,8 +1072,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EEC2AD86-82DF-43D6-A95B-260D68CEBAE0}">
   <dimension ref="A1:J5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1190,10 +1198,10 @@
         <v>300</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>48</v>
+        <v>63</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>49</v>
+        <v>64</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>57</v>

--- a/GameMaster/RPGTale/Data/Data_Excel/AssembleMetaData.xlsx
+++ b/GameMaster/RPGTale/Data/Data_Excel/AssembleMetaData.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22325"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22430"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\建造工程\Project\GameMaster\RPGTale\Data\Data_Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Epic\GameMaster\RPGTale\Data\Data_Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77422694-614C-48EC-A74E-1A684F0AC1A9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1B21271-4E0E-48F6-8F83-2F92A63571B8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="66">
   <si>
     <t>WarShipID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -125,10 +125,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Engine</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>PropertyConfig</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -237,10 +233,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Shield</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Unlock</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -265,10 +257,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Weapon</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>PropertyConfig_300</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -286,6 +274,21 @@
   </si>
   <si>
     <t>SpriteOutput/Assemble/Icon/Assemble_Part_Engine_004</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WarShip_Engine</t>
+  </si>
+  <si>
+    <t>WarShip_Engine</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WarShip_Shield</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WarShip_Weapon</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -362,74 +365,6 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -446,7 +381,7 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="505B66"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
         <a:sysClr val="window" lastClr="FFFFFF"/>
@@ -734,13 +669,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>10</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E1" s="3" t="s">
         <v>9</v>
@@ -770,10 +705,10 @@
         <v>1</v>
       </c>
       <c r="N1" s="3" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="O1" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.2">
@@ -781,7 +716,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C2" s="1">
         <v>100</v>
@@ -817,10 +752,10 @@
         <v>10</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="O2" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.2">
@@ -828,7 +763,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C3" s="1">
         <v>100</v>
@@ -864,10 +799,10 @@
         <v>15</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="O3" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>
@@ -917,7 +852,7 @@
         <v>11</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
   </sheetData>
@@ -932,7 +867,7 @@
   <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="E41" sqref="E41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -951,7 +886,7 @@
         <v>22</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>21</v>
@@ -963,7 +898,7 @@
         <v>7</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G1" s="3" t="s">
         <v>19</v>
@@ -986,7 +921,7 @@
         <v>20</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>17</v>
@@ -1009,7 +944,7 @@
         <v>20</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>17</v>
@@ -1032,7 +967,7 @@
         <v>20</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G4" s="1" t="s">
         <v>17</v>
@@ -1049,16 +984,16 @@
         <v>300</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="E5" s="1">
         <v>40</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
   </sheetData>
@@ -1072,8 +1007,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EEC2AD86-82DF-43D6-A95B-260D68CEBAE0}">
   <dimension ref="A1:J5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1084,7 +1019,7 @@
     <col min="4" max="4" width="34.5" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="34.125" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="49" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="15.125" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="18.375" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="10" width="9" style="4"/>
   </cols>
@@ -1094,25 +1029,25 @@
         <v>21</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F1" s="3" t="s">
         <v>13</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -1120,22 +1055,22 @@
         <v>100</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D2" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="E2" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>31</v>
-      </c>
       <c r="G2" s="1" t="s">
-        <v>24</v>
+        <v>62</v>
       </c>
       <c r="H2" s="1" t="s">
         <v>23</v>
@@ -1146,22 +1081,22 @@
         <v>101</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="D3" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E3" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D3" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>46</v>
-      </c>
       <c r="F3" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>24</v>
+        <v>63</v>
       </c>
       <c r="H3" s="1" t="s">
         <v>23</v>
@@ -1172,22 +1107,22 @@
         <v>200</v>
       </c>
       <c r="B4" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="D4" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="E4" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="E4" s="1" t="s">
-        <v>51</v>
-      </c>
       <c r="F4" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>52</v>
+        <v>64</v>
       </c>
       <c r="H4" s="1" t="s">
         <v>23</v>
@@ -1198,29 +1133,30 @@
         <v>300</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="D5" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="H5" s="1" t="s">
         <v>57</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>60</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>